--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lgi3-Stx1a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lgi3-Stx1a.xlsx
@@ -91,7 +91,7 @@
     <t>Stx1a</t>
   </si>
   <si>
-    <t>Inflammatory-Mac</t>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -543,10 +543,10 @@
         <v>0.134456</v>
       </c>
       <c r="I2">
-        <v>0.02684490863954198</v>
+        <v>0.02406616871877758</v>
       </c>
       <c r="J2">
-        <v>0.02684490863954198</v>
+        <v>0.02406616871877757</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.877610333333333</v>
+        <v>2.765491666666666</v>
       </c>
       <c r="N2">
-        <v>8.632830999999999</v>
+        <v>8.296474999999999</v>
       </c>
       <c r="O2">
-        <v>0.4899052460555132</v>
+        <v>0.4885734765724882</v>
       </c>
       <c r="P2">
-        <v>0.4899052460555131</v>
+        <v>0.4885734765724882</v>
       </c>
       <c r="Q2">
-        <v>0.1289706583262222</v>
+        <v>0.1239456491777778</v>
       </c>
       <c r="R2">
-        <v>1.160735924936</v>
+        <v>1.1155108426</v>
       </c>
       <c r="S2">
-        <v>0.01315146157239258</v>
+        <v>0.01175809171871323</v>
       </c>
       <c r="T2">
-        <v>0.01315146157239258</v>
+        <v>0.01175809171871322</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +605,10 @@
         <v>0.134456</v>
       </c>
       <c r="I3">
-        <v>0.02684490863954198</v>
+        <v>0.02406616871877758</v>
       </c>
       <c r="J3">
-        <v>0.02684490863954198</v>
+        <v>0.02406616871877757</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,25 +620,25 @@
         <v>2.223526</v>
       </c>
       <c r="N3">
-        <v>6.670578000000001</v>
+        <v>6.670577999999999</v>
       </c>
       <c r="O3">
-        <v>0.3785491869842573</v>
+        <v>0.3928255655815217</v>
       </c>
       <c r="P3">
-        <v>0.3785491869842573</v>
+        <v>0.3928255655815217</v>
       </c>
       <c r="Q3">
-        <v>0.09965547061866667</v>
+        <v>0.09965547061866666</v>
       </c>
       <c r="R3">
-        <v>0.8968992355680001</v>
+        <v>0.8968992355679998</v>
       </c>
       <c r="S3">
-        <v>0.01016211834016528</v>
+        <v>0.009453806338334128</v>
       </c>
       <c r="T3">
-        <v>0.01016211834016528</v>
+        <v>0.009453806338334125</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,7 +652,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -667,40 +667,40 @@
         <v>0.134456</v>
       </c>
       <c r="I4">
-        <v>0.02684490863954198</v>
+        <v>0.02406616871877758</v>
       </c>
       <c r="J4">
-        <v>0.02684490863954198</v>
+        <v>0.02406616871877757</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.03957766666666666</v>
+        <v>0.6111460000000001</v>
       </c>
       <c r="N4">
-        <v>0.118733</v>
+        <v>1.833438</v>
       </c>
       <c r="O4">
-        <v>0.006737988914634057</v>
+        <v>0.107969851984139</v>
       </c>
       <c r="P4">
-        <v>0.006737988914634055</v>
+        <v>0.107969851984139</v>
       </c>
       <c r="Q4">
-        <v>0.001773818249777778</v>
+        <v>0.02739074885866667</v>
       </c>
       <c r="R4">
-        <v>0.015964364248</v>
+        <v>0.246516739728</v>
       </c>
       <c r="S4">
-        <v>0.0001808806968275979</v>
+        <v>0.002598420674391732</v>
       </c>
       <c r="T4">
-        <v>0.0001808806968275978</v>
+        <v>0.002598420674391731</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,7 +714,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -729,40 +729,40 @@
         <v>0.134456</v>
       </c>
       <c r="I5">
-        <v>0.02684490863954198</v>
+        <v>0.02406616871877758</v>
       </c>
       <c r="J5">
-        <v>0.02684490863954198</v>
+        <v>0.02406616871877757</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.7330960000000001</v>
+        <v>0.06017566666666666</v>
       </c>
       <c r="N5">
-        <v>2.199288</v>
+        <v>0.180527</v>
       </c>
       <c r="O5">
-        <v>0.1248075780455957</v>
+        <v>0.01063110586185116</v>
       </c>
       <c r="P5">
-        <v>0.1248075780455956</v>
+        <v>0.01063110586185116</v>
       </c>
       <c r="Q5">
-        <v>0.03285638525866667</v>
+        <v>0.002696993145777777</v>
       </c>
       <c r="R5">
-        <v>0.295707467328</v>
+        <v>0.024272938312</v>
       </c>
       <c r="S5">
-        <v>0.003350448030156521</v>
+        <v>0.0002558499873384953</v>
       </c>
       <c r="T5">
-        <v>0.00335044803015652</v>
+        <v>0.0002558499873384952</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>4.819827999999999</v>
       </c>
       <c r="I6">
-        <v>0.9623061991901166</v>
+        <v>0.8626970447097064</v>
       </c>
       <c r="J6">
-        <v>0.9623061991901166</v>
+        <v>0.8626970447097063</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.877610333333333</v>
+        <v>2.765491666666666</v>
       </c>
       <c r="N6">
-        <v>8.632830999999999</v>
+        <v>8.296474999999999</v>
       </c>
       <c r="O6">
-        <v>0.4899052460555132</v>
+        <v>0.4885734765724882</v>
       </c>
       <c r="P6">
-        <v>0.4899052460555131</v>
+        <v>0.4885734765724882</v>
       </c>
       <c r="Q6">
-        <v>4.623195619229777</v>
+        <v>4.443064722922221</v>
       </c>
       <c r="R6">
-        <v>41.60876057306799</v>
+        <v>39.98758250629999</v>
       </c>
       <c r="S6">
-        <v>0.4714388552949798</v>
+        <v>0.4214908943626326</v>
       </c>
       <c r="T6">
-        <v>0.4714388552949796</v>
+        <v>0.4214908943626325</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>4.819827999999999</v>
       </c>
       <c r="I7">
-        <v>0.9623061991901166</v>
+        <v>0.8626970447097064</v>
       </c>
       <c r="J7">
-        <v>0.9623061991901166</v>
+        <v>0.8626970447097063</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,25 +868,25 @@
         <v>2.223526</v>
       </c>
       <c r="N7">
-        <v>6.670578000000001</v>
+        <v>6.670577999999999</v>
       </c>
       <c r="O7">
-        <v>0.3785491869842573</v>
+        <v>0.3928255655815217</v>
       </c>
       <c r="P7">
-        <v>0.3785491869842573</v>
+        <v>0.3928255655815217</v>
       </c>
       <c r="Q7">
-        <v>3.572337624509333</v>
+        <v>3.572337624509332</v>
       </c>
       <c r="R7">
-        <v>32.151038620584</v>
+        <v>32.15103862058399</v>
       </c>
       <c r="S7">
-        <v>0.3642802293333294</v>
+        <v>0.3388894545135978</v>
       </c>
       <c r="T7">
-        <v>0.3642802293333294</v>
+        <v>0.3388894545135976</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,7 +900,7 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,40 +915,40 @@
         <v>4.819827999999999</v>
       </c>
       <c r="I8">
-        <v>0.9623061991901166</v>
+        <v>0.8626970447097064</v>
       </c>
       <c r="J8">
-        <v>0.9623061991901166</v>
+        <v>0.8626970447097063</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.03957766666666666</v>
+        <v>0.6111460000000001</v>
       </c>
       <c r="N8">
-        <v>0.118733</v>
+        <v>1.833438</v>
       </c>
       <c r="O8">
-        <v>0.006737988914634057</v>
+        <v>0.107969851984139</v>
       </c>
       <c r="P8">
-        <v>0.006737988914634055</v>
+        <v>0.107969851984139</v>
       </c>
       <c r="Q8">
-        <v>0.06358584865822221</v>
+        <v>0.9818728676293333</v>
       </c>
       <c r="R8">
-        <v>0.5722726379239998</v>
+        <v>8.836855808664</v>
       </c>
       <c r="S8">
-        <v>0.006484008502626639</v>
+        <v>0.09314527222446119</v>
       </c>
       <c r="T8">
-        <v>0.006484008502626637</v>
+        <v>0.09314527222446115</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,7 +962,7 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,40 +977,40 @@
         <v>4.819827999999999</v>
       </c>
       <c r="I9">
-        <v>0.9623061991901166</v>
+        <v>0.8626970447097064</v>
       </c>
       <c r="J9">
-        <v>0.9623061991901166</v>
+        <v>0.8626970447097063</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.7330960000000001</v>
+        <v>0.06017566666666666</v>
       </c>
       <c r="N9">
-        <v>2.199288</v>
+        <v>0.180527</v>
       </c>
       <c r="O9">
-        <v>0.1248075780455957</v>
+        <v>0.01063110586185116</v>
       </c>
       <c r="P9">
-        <v>0.1248075780455956</v>
+        <v>0.01063110586185116</v>
       </c>
       <c r="Q9">
-        <v>1.177798875829333</v>
+        <v>0.09667878770622221</v>
       </c>
       <c r="R9">
-        <v>10.600189882464</v>
+        <v>0.8701090893559998</v>
       </c>
       <c r="S9">
-        <v>0.120103106059181</v>
+        <v>0.009171423609015031</v>
       </c>
       <c r="T9">
-        <v>0.120103106059181</v>
+        <v>0.009171423609015027</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,22 +1027,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.01811266666666667</v>
+        <v>0.210882</v>
       </c>
       <c r="H10">
-        <v>0.054338</v>
+        <v>0.6326459999999999</v>
       </c>
       <c r="I10">
-        <v>0.01084889217034147</v>
+        <v>0.113236786571516</v>
       </c>
       <c r="J10">
-        <v>0.01084889217034147</v>
+        <v>0.113236786571516</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.877610333333333</v>
+        <v>2.765491666666666</v>
       </c>
       <c r="N10">
-        <v>8.632830999999999</v>
+        <v>8.296474999999999</v>
       </c>
       <c r="O10">
-        <v>0.4899052460555132</v>
+        <v>0.4885734765724882</v>
       </c>
       <c r="P10">
-        <v>0.4899052460555131</v>
+        <v>0.4885734765724882</v>
       </c>
       <c r="Q10">
-        <v>0.05212119676422221</v>
+        <v>0.5831924136499999</v>
       </c>
       <c r="R10">
-        <v>0.4690907708779999</v>
+        <v>5.248731722849999</v>
       </c>
       <c r="S10">
-        <v>0.005314929188140866</v>
+        <v>0.05532449049114244</v>
       </c>
       <c r="T10">
-        <v>0.005314929188140864</v>
+        <v>0.05532449049114242</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.01811266666666667</v>
+        <v>0.210882</v>
       </c>
       <c r="H11">
-        <v>0.054338</v>
+        <v>0.6326459999999999</v>
       </c>
       <c r="I11">
-        <v>0.01084889217034147</v>
+        <v>0.113236786571516</v>
       </c>
       <c r="J11">
-        <v>0.01084889217034147</v>
+        <v>0.113236786571516</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,25 +1116,25 @@
         <v>2.223526</v>
       </c>
       <c r="N11">
-        <v>6.670578000000001</v>
+        <v>6.670577999999999</v>
       </c>
       <c r="O11">
-        <v>0.3785491869842573</v>
+        <v>0.3928255655815217</v>
       </c>
       <c r="P11">
-        <v>0.3785491869842573</v>
+        <v>0.3928255655815217</v>
       </c>
       <c r="Q11">
-        <v>0.04027398526266666</v>
+        <v>0.4689016099319999</v>
       </c>
       <c r="R11">
-        <v>0.362465867364</v>
+        <v>4.220114489387999</v>
       </c>
       <c r="S11">
-        <v>0.004106839310762636</v>
+        <v>0.04448230472958985</v>
       </c>
       <c r="T11">
-        <v>0.004106839310762636</v>
+        <v>0.04448230472958983</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,55 +1148,55 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.01811266666666667</v>
+        <v>0.210882</v>
       </c>
       <c r="H12">
-        <v>0.054338</v>
+        <v>0.6326459999999999</v>
       </c>
       <c r="I12">
-        <v>0.01084889217034147</v>
+        <v>0.113236786571516</v>
       </c>
       <c r="J12">
-        <v>0.01084889217034147</v>
+        <v>0.113236786571516</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.03957766666666666</v>
+        <v>0.6111460000000001</v>
       </c>
       <c r="N12">
-        <v>0.118733</v>
+        <v>1.833438</v>
       </c>
       <c r="O12">
-        <v>0.006737988914634057</v>
+        <v>0.107969851984139</v>
       </c>
       <c r="P12">
-        <v>0.006737988914634055</v>
+        <v>0.107969851984139</v>
       </c>
       <c r="Q12">
-        <v>0.0007168570837777777</v>
+        <v>0.128879690772</v>
       </c>
       <c r="R12">
-        <v>0.006451713753999999</v>
+        <v>1.159917216948</v>
       </c>
       <c r="S12">
-        <v>7.309971517982102E-05</v>
+        <v>0.01222615908528613</v>
       </c>
       <c r="T12">
-        <v>7.309971517982099E-05</v>
+        <v>0.01222615908528612</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,55 +1210,55 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.210882</v>
+      </c>
+      <c r="H13">
+        <v>0.6326459999999999</v>
+      </c>
+      <c r="I13">
+        <v>0.113236786571516</v>
+      </c>
+      <c r="J13">
+        <v>0.113236786571516</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G13">
-        <v>0.01811266666666667</v>
-      </c>
-      <c r="H13">
-        <v>0.054338</v>
-      </c>
-      <c r="I13">
-        <v>0.01084889217034147</v>
-      </c>
-      <c r="J13">
-        <v>0.01084889217034147</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
       <c r="M13">
-        <v>0.7330960000000001</v>
+        <v>0.06017566666666666</v>
       </c>
       <c r="N13">
-        <v>2.199288</v>
+        <v>0.180527</v>
       </c>
       <c r="O13">
-        <v>0.1248075780455957</v>
+        <v>0.01063110586185116</v>
       </c>
       <c r="P13">
-        <v>0.1248075780455956</v>
+        <v>0.01063110586185116</v>
       </c>
       <c r="Q13">
-        <v>0.01327832348266667</v>
+        <v>0.012689964938</v>
       </c>
       <c r="R13">
-        <v>0.119504911344</v>
+        <v>0.114209684442</v>
       </c>
       <c r="S13">
-        <v>0.001354023956258144</v>
+        <v>0.001203832265497633</v>
       </c>
       <c r="T13">
-        <v>0.001354023956258144</v>
+        <v>0.001203832265497632</v>
       </c>
     </row>
   </sheetData>
